--- a/data/trans_dic/P1417-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1417-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.009595435418001534</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.01237325689245645</v>
+        <v>0.01237325689245644</v>
       </c>
     </row>
     <row r="5">
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.002285959977001746</v>
+        <v>0.002289701255384044</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.004838897245287</v>
+        <v>0.004943359624519114</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.006312373067359286</v>
+        <v>0.006224067586249311</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.001103047430681298</v>
+        <v>0.001109985550856707</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.004747422383506054</v>
+        <v>0.004564981460609175</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.002934499615023177</v>
+        <v>0.002912161263683375</v>
       </c>
     </row>
     <row r="6">
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.009706422093871365</v>
+        <v>0.0107828002689612</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.01639335675247448</v>
+        <v>0.01666104877503716</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.01108560277636706</v>
+        <v>0.01102121871362747</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02090202844291532</v>
+        <v>0.02318673607255057</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02951582312293598</v>
+        <v>0.03141390580103834</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06765583964271536</v>
+        <v>0.06255099056006524</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.00580192037305994</v>
+        <v>0.006788729122183848</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01048380647487225</v>
+        <v>0.01103900319674843</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01780970573032526</v>
+        <v>0.01948403348173011</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03136277191416314</v>
+        <v>0.02890762687980063</v>
       </c>
     </row>
     <row r="7">
@@ -846,28 +846,28 @@
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="n">
-        <v>0.007829980935194922</v>
+        <v>0.007034962327832964</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.009283819490221125</v>
+        <v>0.009490631348159553</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.008875604199823601</v>
+        <v>0.01026374135513467</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01130170830661985</v>
+        <v>0.01213252440835086</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.003846873522507856</v>
+        <v>0.003699311444329229</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.004672995984994933</v>
+        <v>0.005179740940506682</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.005880435263721682</v>
+        <v>0.005751683891157582</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.006101735395456922</v>
+        <v>0.005880514914341489</v>
       </c>
     </row>
     <row r="9">
@@ -878,38 +878,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.006830680974809193</v>
+        <v>0.007676066795552806</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.007085761389167567</v>
+        <v>0.007991181029899416</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.008616034754782845</v>
+        <v>0.008679434222650767</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>0.02739665061417392</v>
+        <v>0.02680054530622136</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03224989921831936</v>
+        <v>0.03255470221981626</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03296093942577909</v>
+        <v>0.03425138854982226</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03986833021216198</v>
+        <v>0.03987854973696885</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01356601985757283</v>
+        <v>0.01360937429406362</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01708300590232882</v>
+        <v>0.01595824856113817</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01800939592118921</v>
+        <v>0.0177871425502601</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02012564105013661</v>
+        <v>0.01982095048537926</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.01188467601755628</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.0334039231712964</v>
+        <v>0.03340392317129639</v>
       </c>
     </row>
     <row r="11">
@@ -977,31 +977,31 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003259980185853089</v>
+        <v>0.003293507031185978</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01006972848437034</v>
+        <v>0.009412404074063312</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02692755363246625</v>
+        <v>0.02644209431326865</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01289915380484815</v>
+        <v>0.0128973467989885</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04365972300803059</v>
+        <v>0.04318724960356398</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.005131434957657299</v>
+        <v>0.005350491482926001</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01453315211471612</v>
+        <v>0.01456275934180072</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.006999144578411444</v>
+        <v>0.007088420792810524</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02522716145169081</v>
+        <v>0.02544735642206328</v>
       </c>
     </row>
     <row r="12">
@@ -1012,40 +1012,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.008215077436654346</v>
+        <v>0.007717467633306398</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.008341543463192356</v>
+        <v>0.007622668029662944</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01416386766746972</v>
+        <v>0.01212697718629128</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02153451261039479</v>
+        <v>0.02032303786396077</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03320431882645365</v>
+        <v>0.03245751519083767</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05589138754483819</v>
+        <v>0.05654313452655572</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03562388972300839</v>
+        <v>0.03452013459040387</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07579813684136823</v>
+        <v>0.07587878115217628</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01714682088845935</v>
+        <v>0.01810373698034863</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03061005684919869</v>
+        <v>0.02998111361728257</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01927619136684395</v>
+        <v>0.01926701009647785</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04368574567374349</v>
+        <v>0.04379774706961531</v>
       </c>
     </row>
     <row r="13">
@@ -1069,7 +1069,7 @@
         <v>0.004774558214519271</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.005295111990001761</v>
+        <v>0.00529511199000176</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.01306400516847522</v>
@@ -1093,7 +1093,7 @@
         <v>0.01350478462971415</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.03190474024927479</v>
+        <v>0.03190474024927478</v>
       </c>
     </row>
     <row r="14">
@@ -1107,37 +1107,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001569944927719743</v>
+        <v>0.001598026423557937</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001554407559362027</v>
+        <v>0.001563410159291593</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.001191101320183234</v>
+        <v>0.001173854569783363</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.005555612847672884</v>
+        <v>0.00556681903419752</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01518388385393823</v>
+        <v>0.0153848407670381</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0116410481710047</v>
+        <v>0.01186444705518477</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04421018825015542</v>
+        <v>0.04510967832568959</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.003737623998083152</v>
+        <v>0.00447255942581797</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.009494272891350398</v>
+        <v>0.009440164914523885</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.008104933864552419</v>
+        <v>0.007595299013136558</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02436078518527704</v>
+        <v>0.02510798485011949</v>
       </c>
     </row>
     <row r="15">
@@ -1148,40 +1148,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01215508033900764</v>
+        <v>0.01152954174785016</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01377793774313341</v>
+        <v>0.01350811091677845</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01262523465240323</v>
+        <v>0.01329008510978565</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01366877090699639</v>
+        <v>0.01279613002117865</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02486973325937633</v>
+        <v>0.02435146847319889</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04378928151127565</v>
+        <v>0.04509156754623209</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03723759434289966</v>
+        <v>0.03749117751666625</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07164696956889816</v>
+        <v>0.07421332044596025</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01500488314889927</v>
+        <v>0.01571628220336629</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02543073149363409</v>
+        <v>0.02455983809815534</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02198340542629115</v>
+        <v>0.02170812540137936</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03956806016737272</v>
+        <v>0.040879260750696</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.02567321696087984</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0269176075136962</v>
+        <v>0.02691760751369621</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.0116051715890119</v>
@@ -1247,31 +1247,31 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.00854794132772793</v>
+        <v>0.008607420264011702</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01014064326918593</v>
+        <v>0.01046161361803772</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01382774213819763</v>
+        <v>0.01390282985497858</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01308066535281509</v>
+        <v>0.01330163475758912</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01869136522191391</v>
+        <v>0.01795212827008855</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.006191382864632861</v>
+        <v>0.005503097561368075</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.008420910577331639</v>
+        <v>0.009275131188963653</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.007676197240423002</v>
+        <v>0.00772434668837755</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01574433581520556</v>
+        <v>0.01534860120262118</v>
       </c>
     </row>
     <row r="18">
@@ -1283,37 +1283,37 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.01632678359261918</v>
+        <v>0.01655768213051424</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0155217832834361</v>
+        <v>0.01551024960370627</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0278446587223935</v>
+        <v>0.02811137877351748</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04217169679574843</v>
+        <v>0.04080169832483262</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04453341196008332</v>
+        <v>0.04509696359962653</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04647117261235296</v>
+        <v>0.04709524098035305</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0410413028458388</v>
+        <v>0.03916420319397006</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02021396926287315</v>
+        <v>0.02245363724570063</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02578421098594924</v>
+        <v>0.02602058025320677</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02421766378216638</v>
+        <v>0.02498013875999494</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03014469859710715</v>
+        <v>0.02981859450128786</v>
       </c>
     </row>
     <row r="19">
@@ -1337,7 +1337,7 @@
         <v>0.01483165746070553</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.0272401926887674</v>
+        <v>0.02724019268876739</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.01904191157488192</v>
@@ -1349,7 +1349,7 @@
         <v>0.02990143257291169</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.03198141342525903</v>
+        <v>0.03198141342525902</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.01709349121830197</v>
@@ -1361,7 +1361,7 @@
         <v>0.02282611381181883</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.02969804375109886</v>
+        <v>0.02969804375109887</v>
       </c>
     </row>
     <row r="20">
@@ -1372,40 +1372,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.005581066062348003</v>
+        <v>0.005440535838087142</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.006913849352089369</v>
+        <v>0.006735748953605829</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.005758960936631766</v>
+        <v>0.005615482453555745</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01554323726187756</v>
+        <v>0.01556450067325541</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.008002730858319325</v>
+        <v>0.008109979520481158</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01422752750380615</v>
+        <v>0.01677787482649695</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01637981129573298</v>
+        <v>0.0161314886718222</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02134878739267526</v>
+        <v>0.0207938453060193</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.009450306093435237</v>
+        <v>0.008338501174597239</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01466450405616483</v>
+        <v>0.01488151328763781</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01372410521100104</v>
+        <v>0.01421019038919928</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02140638385590236</v>
+        <v>0.02152098889955504</v>
       </c>
     </row>
     <row r="21">
@@ -1416,40 +1416,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03674389699923267</v>
+        <v>0.04065824223952832</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04146503739673608</v>
+        <v>0.04328095699389903</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03338581949293169</v>
+        <v>0.03146602665832611</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04304565987573526</v>
+        <v>0.04238272697703803</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03642703584054649</v>
+        <v>0.03985919825622974</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.05563737687919024</v>
+        <v>0.05497256682690004</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.0515429024657585</v>
+        <v>0.05323698500680228</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04568219671081533</v>
+        <v>0.04767152484713291</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03122753763104599</v>
+        <v>0.03013665017162697</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.04027939027267586</v>
+        <v>0.04217627574409852</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.0357536189043353</v>
+        <v>0.03641294137781931</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04012478597538499</v>
+        <v>0.03905445652164579</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.0441131708410147</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.08517737322848203</v>
+        <v>0.08517737322848201</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.03153322262803131</v>
@@ -1497,7 +1497,7 @@
         <v>0.03335866075547732</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.06863861413756088</v>
+        <v>0.06863861413756089</v>
       </c>
     </row>
     <row r="23">
@@ -1508,40 +1508,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.004926363348869492</v>
+        <v>0.00498028638957469</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006477188153591914</v>
+        <v>0.006169049889452364</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.028526093750049</v>
+        <v>0.02764664885401671</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02076726267705634</v>
+        <v>0.02025496520142341</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02276396973958953</v>
+        <v>0.02282869624410432</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02495269713077829</v>
+        <v>0.0255420760783733</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06711849694658786</v>
+        <v>0.06793209361865082</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0179880984680498</v>
+        <v>0.01833073287128907</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01542031266578644</v>
+        <v>0.0169426330557603</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02080740633411468</v>
+        <v>0.02072708140507349</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.05623267476522803</v>
+        <v>0.05575359336663539</v>
       </c>
     </row>
     <row r="24">
@@ -1552,40 +1552,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05210236662591246</v>
+        <v>0.05673861204943682</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02966622086042852</v>
+        <v>0.02938426896791397</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03724751974021524</v>
+        <v>0.03651872041492975</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06785244921721315</v>
+        <v>0.06668397284744858</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06643827671614011</v>
+        <v>0.06517193666896243</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06425222622322892</v>
+        <v>0.06805094478545516</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06909044660862189</v>
+        <v>0.06828347709920876</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1085641610848566</v>
+        <v>0.1063487976450517</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04960075020375353</v>
+        <v>0.05145477283494918</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04287005620594311</v>
+        <v>0.04643489063893979</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05004515349548794</v>
+        <v>0.05095672421287509</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08365370893268834</v>
+        <v>0.08382341909206857</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>0.0245092683986497</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.04518691758360206</v>
+        <v>0.04518691758360205</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.01069061083892849</v>
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.002268351721529086</v>
+        <v>0.002339409471686419</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.002672004141995643</v>
+        <v>0.002653860685908679</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.003640441964778206</v>
+        <v>0.003335593122821811</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.009423033397550198</v>
+        <v>0.009429766511322778</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01303919915510766</v>
+        <v>0.01326929291945971</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.0223115472155917</v>
+        <v>0.02206987616510577</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01977555351011983</v>
+        <v>0.01953636787609515</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.038814463212143</v>
+        <v>0.03993715915549653</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.008196931786894681</v>
+        <v>0.008155503519834689</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01321933288778764</v>
+        <v>0.01328377755450758</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01283276076392343</v>
+        <v>0.01240378695154584</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.0259621351950043</v>
+        <v>0.02579970112851944</v>
       </c>
     </row>
     <row r="27">
@@ -1688,40 +1688,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.007055784477338089</v>
+        <v>0.007028167501558786</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.007446310442123063</v>
+        <v>0.007045456988643975</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.008610046315213045</v>
+        <v>0.008276559108519611</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01617218722224698</v>
+        <v>0.01586575757239109</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02204848391161074</v>
+        <v>0.02208654957310167</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.03333290930711814</v>
+        <v>0.03350094007446795</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.03037864013392986</v>
+        <v>0.0303293833949761</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.05095528284109851</v>
+        <v>0.0517771648545118</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01349864006524869</v>
+        <v>0.0133577148242824</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01952213042737943</v>
+        <v>0.01931972429695555</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.01841215079889297</v>
+        <v>0.01834125632238676</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.03299524051875944</v>
+        <v>0.03277247341510115</v>
       </c>
     </row>
     <row r="28">
@@ -2006,25 +2006,25 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1915</v>
+        <v>1956</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2288</v>
+        <v>2256</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3870</v>
+        <v>3721</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2260</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="7">
@@ -2035,36 +2035,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4796</v>
+        <v>5327</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>6876</v>
+        <v>6989</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>5182</v>
+        <v>5152</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>8993</v>
+        <v>9976</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11681</v>
+        <v>12432</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>24526</v>
+        <v>22675</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5579</v>
+        <v>6528</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>9272</v>
+        <v>9763</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>14519</v>
+        <v>15884</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>24159</v>
+        <v>22268</v>
       </c>
     </row>
     <row r="8">
@@ -2177,28 +2177,28 @@
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="n">
-        <v>4898</v>
+        <v>4400</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5665</v>
+        <v>5792</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5002</v>
+        <v>5784</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5663</v>
+        <v>6079</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5236</v>
+        <v>5035</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>6062</v>
+        <v>6720</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6786</v>
+        <v>6638</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>5967</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="11">
@@ -2209,38 +2209,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5024</v>
+        <v>5646</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4869</v>
+        <v>5491</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5088</v>
+        <v>5125</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>17136</v>
+        <v>16764</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>19681</v>
+        <v>19867</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>18575</v>
+        <v>19302</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>19977</v>
+        <v>19982</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>18463</v>
+        <v>18522</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>22163</v>
+        <v>20703</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>20784</v>
+        <v>20527</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>19682</v>
+        <v>19384</v>
       </c>
     </row>
     <row r="12">
@@ -2352,31 +2352,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2024</v>
+        <v>2045</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6946</v>
+        <v>6492</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>19107</v>
+        <v>18763</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8531</v>
+        <v>8530</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>27134</v>
+        <v>26840</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6817</v>
+        <v>7108</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>20222</v>
+        <v>20263</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>9312</v>
+        <v>9431</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>31340</v>
+        <v>31614</v>
       </c>
     </row>
     <row r="15">
@@ -2387,40 +2387,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5247</v>
+        <v>4929</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5688</v>
+        <v>5198</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9477</v>
+        <v>8114</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13369</v>
+        <v>12617</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22902</v>
+        <v>22387</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>39659</v>
+        <v>40122</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23561</v>
+        <v>22831</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>47108</v>
+        <v>47158</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>22778</v>
+        <v>24049</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>42592</v>
+        <v>41717</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>25647</v>
+        <v>25634</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>54272</v>
+        <v>54411</v>
       </c>
     </row>
     <row r="16">
@@ -2526,37 +2526,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>965</v>
+        <v>982</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2865</v>
+        <v>2870</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9311</v>
+        <v>9434</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>7556</v>
+        <v>7701</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>32561</v>
+        <v>33223</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3868</v>
+        <v>4628</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>11657</v>
+        <v>11591</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>10497</v>
+        <v>9837</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>34977</v>
+        <v>36050</v>
       </c>
     </row>
     <row r="19">
@@ -2567,40 +2567,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6310</v>
+        <v>5986</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8468</v>
+        <v>8302</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8157</v>
+        <v>8586</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>9558</v>
+        <v>8948</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12824</v>
+        <v>12557</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>26852</v>
+        <v>27651</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>24170</v>
+        <v>24335</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>52768</v>
+        <v>54658</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>15527</v>
+        <v>16263</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>31225</v>
+        <v>30155</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>28471</v>
+        <v>28115</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>56811</v>
+        <v>58694</v>
       </c>
     </row>
     <row r="20">
@@ -2710,31 +2710,31 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5192</v>
+        <v>5228</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4097</v>
+        <v>4226</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>6192</v>
+        <v>6226</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>6499</v>
+        <v>6609</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>11328</v>
+        <v>10880</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4896</v>
+        <v>4351</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>7387</v>
+        <v>8136</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>7483</v>
+        <v>7529</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>19105</v>
+        <v>18624</v>
       </c>
     </row>
     <row r="23">
@@ -2746,37 +2746,37 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>7011</v>
+        <v>7110</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7418</v>
+        <v>7413</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>16911</v>
+        <v>17073</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>17037</v>
+        <v>16483</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>19942</v>
+        <v>20194</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>23089</v>
+        <v>23399</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>24874</v>
+        <v>23737</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>15983</v>
+        <v>17754</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>22619</v>
+        <v>22826</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>23607</v>
+        <v>24350</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>36579</v>
+        <v>36183</v>
       </c>
     </row>
     <row r="24">
@@ -2879,40 +2879,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1633</v>
+        <v>1592</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2142</v>
+        <v>2087</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1925</v>
+        <v>1877</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>6314</v>
+        <v>6322</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2744</v>
+        <v>2781</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>5036</v>
+        <v>5939</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>6188</v>
+        <v>6094</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>9335</v>
+        <v>9092</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>6006</v>
+        <v>5299</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>9734</v>
+        <v>9878</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>9773</v>
+        <v>10119</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>18055</v>
+        <v>18152</v>
       </c>
     </row>
     <row r="27">
@@ -2923,40 +2923,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>10751</v>
+        <v>11896</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12845</v>
+        <v>13408</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11162</v>
+        <v>10520</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>17486</v>
+        <v>17216</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>12492</v>
+        <v>13669</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>19695</v>
+        <v>19460</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>19471</v>
+        <v>20111</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>19975</v>
+        <v>20844</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>19846</v>
+        <v>19152</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>26737</v>
+        <v>27996</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>25460</v>
+        <v>25929</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>33844</v>
+        <v>32941</v>
       </c>
     </row>
     <row r="28">
@@ -3059,40 +3059,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1034</v>
+        <v>1045</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1665</v>
+        <v>1585</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>8810</v>
+        <v>8538</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>6934</v>
+        <v>6763</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>8855</v>
+        <v>8880</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>9985</v>
+        <v>10221</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>31122</v>
+        <v>31499</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>9782</v>
+        <v>9968</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>9851</v>
+        <v>10823</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>13674</v>
+        <v>13621</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>43440</v>
+        <v>43070</v>
       </c>
     </row>
     <row r="31">
@@ -3103,40 +3103,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>10935</v>
+        <v>11908</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>7412</v>
+        <v>7342</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>9573</v>
+        <v>9385</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>20955</v>
+        <v>20594</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>22184</v>
+        <v>21761</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>24993</v>
+        <v>26470</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>27648</v>
+        <v>27325</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>50339</v>
+        <v>49312</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>26972</v>
+        <v>27981</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>27387</v>
+        <v>29664</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>32888</v>
+        <v>33487</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>64623</v>
+        <v>64755</v>
       </c>
     </row>
     <row r="32">
@@ -3239,40 +3239,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>7432</v>
+        <v>7665</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>9156</v>
+        <v>9094</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>12357</v>
+        <v>11322</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>33237</v>
+        <v>33261</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>44062</v>
+        <v>44840</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>79296</v>
+        <v>78437</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>70095</v>
+        <v>69247</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>144723</v>
+        <v>148909</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>54557</v>
+        <v>54281</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>92282</v>
+        <v>92732</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>89045</v>
+        <v>86069</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>188376</v>
+        <v>187197</v>
       </c>
     </row>
     <row r="35">
@@ -3283,40 +3283,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>23119</v>
+        <v>23028</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>25517</v>
+        <v>24143</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>29226</v>
+        <v>28094</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>57042</v>
+        <v>55962</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>74506</v>
+        <v>74635</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>118467</v>
+        <v>119064</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>107678</v>
+        <v>107504</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>189991</v>
+        <v>193056</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>89843</v>
+        <v>88905</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>136281</v>
+        <v>134868</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>127760</v>
+        <v>127268</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>239407</v>
+        <v>237790</v>
       </c>
     </row>
     <row r="36">
